--- a/_site/xls/Poverty three-year average.xlsx
+++ b/_site/xls/Poverty three-year average.xlsx
@@ -5,16 +5,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="255" state="visible" r:id="rId10"/>
-    <sheet name="Relative BHC" sheetId="246" state="visible" r:id="rId1"/>
-    <sheet name="Relative AHC" sheetId="247" state="visible" r:id="rId2"/>
-    <sheet name="Absolute BHC" sheetId="248" state="visible" r:id="rId3"/>
-    <sheet name="Absolute AHC" sheetId="249" state="visible" r:id="rId4"/>
-    <sheet name="Severe BHC" sheetId="250" state="visible" r:id="rId5"/>
-    <sheet name="Severe AHC" sheetId="251" state="visible" r:id="rId6"/>
-    <sheet name="Child mat dep BHC" sheetId="252" state="visible" r:id="rId7"/>
-    <sheet name="Child mat dep AHC" sheetId="253" state="visible" r:id="rId8"/>
-    <sheet name="Pensioner dep" sheetId="254" state="visible" r:id="rId9"/>
+    <sheet name="Contents" sheetId="265" state="visible" r:id="rId10"/>
+    <sheet name="Relative BHC" sheetId="256" state="visible" r:id="rId1"/>
+    <sheet name="Relative AHC" sheetId="257" state="visible" r:id="rId2"/>
+    <sheet name="Absolute BHC" sheetId="258" state="visible" r:id="rId3"/>
+    <sheet name="Absolute AHC" sheetId="259" state="visible" r:id="rId4"/>
+    <sheet name="Severe BHC" sheetId="260" state="visible" r:id="rId5"/>
+    <sheet name="Severe AHC" sheetId="261" state="visible" r:id="rId6"/>
+    <sheet name="Child mat dep BHC" sheetId="262" state="visible" r:id="rId7"/>
+    <sheet name="Child mat dep AHC" sheetId="263" state="visible" r:id="rId8"/>
+    <sheet name="Pensioner dep" sheetId="264" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1545,9 +1545,9 @@
       <name val="Segoe UI Semibold"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1555,17 +1555,12 @@
       <name val="Segoe UI Semibold"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
@@ -1574,6 +1569,11 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI Semibold"/>
       <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1617,11 +1617,6 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFD3D3D3"/>
       </left>
@@ -1633,6 +1628,11 @@
       </top>
       <bottom style="thin">
         <color rgb="FFD3D3D3"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -1656,20 +1656,20 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1999,7 +1999,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2033,703 +2033,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2877,703 +2877,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3651,703 +3651,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="6" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4425,703 +4425,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="6" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5199,703 +5199,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="6" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5918,8 +5918,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
@@ -5939,7 +5939,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5973,703 +5973,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="6" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6707,181 +6707,181 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6912,181 +6912,181 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7102,7 +7102,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="9.605" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7117,136 +7117,136 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_site/xls/Poverty three-year average.xlsx
+++ b/_site/xls/Poverty three-year average.xlsx
@@ -5,23 +5,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="265" state="visible" r:id="rId10"/>
-    <sheet name="Relative BHC" sheetId="256" state="visible" r:id="rId1"/>
-    <sheet name="Relative AHC" sheetId="257" state="visible" r:id="rId2"/>
-    <sheet name="Absolute BHC" sheetId="258" state="visible" r:id="rId3"/>
-    <sheet name="Absolute AHC" sheetId="259" state="visible" r:id="rId4"/>
-    <sheet name="Severe BHC" sheetId="260" state="visible" r:id="rId5"/>
-    <sheet name="Severe AHC" sheetId="261" state="visible" r:id="rId6"/>
-    <sheet name="Child mat dep BHC" sheetId="262" state="visible" r:id="rId7"/>
-    <sheet name="Child mat dep AHC" sheetId="263" state="visible" r:id="rId8"/>
-    <sheet name="Pensioner dep" sheetId="264" state="visible" r:id="rId9"/>
+    <sheet name="Contents" sheetId="315" state="visible" r:id="rId10"/>
+    <sheet name="Relative BHC" sheetId="306" state="visible" r:id="rId1"/>
+    <sheet name="Relative AHC" sheetId="307" state="visible" r:id="rId2"/>
+    <sheet name="Absolute BHC" sheetId="308" state="visible" r:id="rId3"/>
+    <sheet name="Absolute AHC" sheetId="309" state="visible" r:id="rId4"/>
+    <sheet name="Severe BHC" sheetId="310" state="visible" r:id="rId5"/>
+    <sheet name="Severe AHC" sheetId="311" state="visible" r:id="rId6"/>
+    <sheet name="Child mat dep BHC" sheetId="312" state="visible" r:id="rId7"/>
+    <sheet name="Child mat dep AHC" sheetId="313" state="visible" r:id="rId8"/>
+    <sheet name="Pensioner dep" sheetId="314" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
   <si>
     <t>Relative poverty before housing costs</t>
   </si>
@@ -1524,6 +1524,27 @@
   </si>
   <si>
     <t xml:space="preserve">1,060,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This workbook contains data used in the charts and tables in the Poverty and Income Inequality in Scotland report, and additional analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The report is available here: data.gov.scot/poverty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maike Waldmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottish Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communities Analysis Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social-justice-analysis@gov.scot</t>
   </si>
 </sst>
 </file>
@@ -1653,26 +1674,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1978,8 +2002,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.31875" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.96125" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
@@ -1989,7 +2013,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -2033,703 +2057,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2761,54 +2785,93 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="12" t="str">
         <f>=HYPERLINK("#'Relative BHC'!B1", "Relative poverty before housing costs")</f>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="11" t="str">
+    <row r="7">
+      <c r="B7" s="12" t="str">
         <f>=HYPERLINK("#'Relative AHC'!B1", "Relative poverty after housing costs")</f>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="11" t="str">
+    <row r="8">
+      <c r="B8" s="12" t="str">
         <f>=HYPERLINK("#'Absolute BHC'!B1", "Absolute poverty before housing costs")</f>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="11" t="str">
+    <row r="9">
+      <c r="B9" s="12" t="str">
         <f>=HYPERLINK("#'Absolute AHC'!B1", "Absolute poverty after housing costs")</f>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="11" t="str">
+    <row r="10">
+      <c r="B10" s="12" t="str">
         <f>=HYPERLINK("#'Severe BHC'!B1", "Severe poverty before housing costs")</f>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="11" t="str">
+    <row r="11">
+      <c r="B11" s="12" t="str">
         <f>=HYPERLINK("#'Severe AHC'!B1", "Severe poverty after housing costs")</f>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="11" t="str">
+    <row r="12">
+      <c r="B12" s="12" t="str">
         <f>=HYPERLINK("#'Child mat dep BHC'!B1", "Children in combined low income and material deprivation before housing costs")</f>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="11" t="str">
+    <row r="13">
+      <c r="B13" s="12" t="str">
         <f>=HYPERLINK("#'Child mat dep AHC'!B1", "Children in combined low income and material deprivation after housing costs")</f>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="11" t="str">
+    <row r="14">
+      <c r="B14" s="12" t="str">
         <f>=HYPERLINK("#'Pensioner dep'!B1", "Pensioners in material deprivation")</f>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="11"/>
+    <row r="15">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="11" t="s">
+        <v>507</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1h"/>
+    <hyperlink ref="B20" r:id="rId2h"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -2822,8 +2885,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.31875" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.96125" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
@@ -2833,7 +2896,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -2877,703 +2940,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3607,7 +3670,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -3651,703 +3714,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4381,7 +4444,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -4425,703 +4488,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5155,7 +5218,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -5199,703 +5262,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5918,8 +5981,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.96125" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
@@ -5929,7 +5992,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -5973,703 +6036,703 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6692,12 +6755,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="12.4975" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -6712,161 +6775,161 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6897,12 +6960,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="12.4975" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -6917,161 +6980,161 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7102,12 +7165,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.605" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.535" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -7122,106 +7185,106 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>325</v>
       </c>
     </row>
